--- a/prep_and_checklists/Fora Travel VIP/Fora Travel VIP_2025-03-16_0.xlsx
+++ b/prep_and_checklists/Fora Travel VIP/Fora Travel VIP_2025-03-16_0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Fora Travel VIP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711A2561-0D82-944E-9AED-6E9D451F0C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C06CFD-2DA4-D042-AC01-FAC372F23E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Fora Travel VIP 15 Guests 6:00 PM - 9:00 PM Thursday, March 20, 2025</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Clean and cut swiss chard</t>
   </si>
   <si>
-    <t>Clean and portion tenderloin</t>
-  </si>
-  <si>
     <t>Garnish</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Mussels</t>
   </si>
   <si>
-    <t>Zuchinni</t>
-  </si>
-  <si>
     <t>Lasagna</t>
   </si>
   <si>
@@ -108,6 +102,135 @@
   </si>
   <si>
     <t>Salsa verde</t>
+  </si>
+  <si>
+    <t>1 bottle</t>
+  </si>
+  <si>
+    <t>2 1/2 qts</t>
+  </si>
+  <si>
+    <t>* defrost 9 packs</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>4 quarts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10lbs</t>
+  </si>
+  <si>
+    <t>2x clamshells</t>
+  </si>
+  <si>
+    <t>3 quarts</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>raw, 1x hotel pan</t>
+  </si>
+  <si>
+    <t>2 quarts raw</t>
+  </si>
+  <si>
+    <t>10 lbs</t>
+  </si>
+  <si>
+    <t>10 portions</t>
+  </si>
+  <si>
+    <t>1 bag</t>
+  </si>
+  <si>
+    <t>10lbs</t>
+  </si>
+  <si>
+    <t>Assembled lasgana</t>
+  </si>
+  <si>
+    <t>8 portions</t>
+  </si>
+  <si>
+    <t>*See chef Jinesh</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>Order 3/17</t>
+  </si>
+  <si>
+    <t>Labneh</t>
+  </si>
+  <si>
+    <t>Mizuna</t>
+  </si>
+  <si>
+    <t>Feta</t>
+  </si>
+  <si>
+    <t>Choice beef tenderloin</t>
+  </si>
+  <si>
+    <t>Swiss chard</t>
+  </si>
+  <si>
+    <t>Baby zuchinni</t>
+  </si>
+  <si>
+    <t>Crimini mushrooms</t>
+  </si>
+  <si>
+    <t>Ricotta</t>
+  </si>
+  <si>
+    <t>1 cs</t>
+  </si>
+  <si>
+    <t>*check</t>
+  </si>
+  <si>
+    <t>10lbs?</t>
+  </si>
+  <si>
+    <t>2 clamshells</t>
+  </si>
+  <si>
+    <t>*see chef mark</t>
+  </si>
+  <si>
+    <t>1 fish?</t>
+  </si>
+  <si>
+    <t>1cs</t>
+  </si>
+  <si>
+    <t>Saffron fingerling potatoes</t>
+  </si>
+  <si>
+    <t>clean, portion(4oz) and brine halibut</t>
+  </si>
+  <si>
+    <t>Cook and pick mussels</t>
+  </si>
+  <si>
+    <t>Baby zuchinni obliques</t>
+  </si>
+  <si>
+    <t>Fennel fronds</t>
+  </si>
+  <si>
+    <t>Clean and truss tenderloin</t>
+  </si>
+  <si>
+    <t>2 pc loin</t>
+  </si>
+  <si>
+    <t>5lbs</t>
   </si>
 </sst>
 </file>
@@ -495,215 +618,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="D18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -712,7 +936,7 @@
     </row>
     <row r="36" spans="1:2" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>2</v>
@@ -720,47 +944,55 @@
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>4</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="79" orientation="portrait"/>
 </worksheet>
 </file>
 
